--- a/results/parameter_comparison.xlsx
+++ b/results/parameter_comparison.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>mel-DER</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>权重和</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,7 +488,7 @@
         <v>1000.29</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37</v>
+        <v>0.867</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -492,7 +497,10 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>1.537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +516,7 @@
         <v>1000.29</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -517,7 +525,10 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>1.26</v>
+        <v>1.698</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +544,7 @@
         <v>1000.29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>1.33</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -542,7 +553,10 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08</v>
+        <v>0.951</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
